--- a/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_xgb_st.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_xgb_st.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.15259556770325</v>
+        <v>14.23090353012085</v>
       </c>
       <c r="C2">
-        <v>1.05267143507151</v>
+        <v>0.08987017251387559</v>
       </c>
       <c r="D2">
-        <v>0.08534760475158691</v>
+        <v>0.1012592315673828</v>
       </c>
       <c r="E2">
-        <v>0.01956830993232566</v>
+        <v>0.02590453010150344</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.8871479511261</v>
+        <v>27.90912117958069</v>
       </c>
       <c r="C3">
-        <v>2.16775458929561</v>
+        <v>0.1691629409042714</v>
       </c>
       <c r="D3">
-        <v>0.08803949356079102</v>
+        <v>0.1151493072509766</v>
       </c>
       <c r="E3">
-        <v>0.03069251899343876</v>
+        <v>0.005189076373527938</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>41.44909944534302</v>
+        <v>55.41184558868408</v>
       </c>
       <c r="C4">
-        <v>5.115311126580822</v>
+        <v>0.5643103387178653</v>
       </c>
       <c r="D4">
-        <v>0.09200606346130372</v>
+        <v>0.1329743385314942</v>
       </c>
       <c r="E4">
-        <v>0.01817993634691197</v>
+        <v>0.002861550168892401</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.36741666793823</v>
+        <v>14.21831903457642</v>
       </c>
       <c r="C5">
-        <v>1.493066677095403</v>
+        <v>0.1288180034290688</v>
       </c>
       <c r="D5">
-        <v>0.09559855461120606</v>
+        <v>0.1130139350891113</v>
       </c>
       <c r="E5">
-        <v>0.0245782120043128</v>
+        <v>0.00398423284335369</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.82835965156555</v>
+        <v>27.57978043556214</v>
       </c>
       <c r="C6">
-        <v>2.356783982888119</v>
+        <v>0.3551971935418634</v>
       </c>
       <c r="D6">
-        <v>0.09160318374633789</v>
+        <v>0.1224071979522705</v>
       </c>
       <c r="E6">
-        <v>0.01795562546531619</v>
+        <v>0.004417036714532242</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>39.79512739181519</v>
+        <v>54.99692068099976</v>
       </c>
       <c r="C7">
-        <v>5.367968721106632</v>
+        <v>0.5439854190609286</v>
       </c>
       <c r="D7">
-        <v>0.09226822853088379</v>
+        <v>0.1331564903259277</v>
       </c>
       <c r="E7">
-        <v>0.01217054660834753</v>
+        <v>0.004187420709583316</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.86775403022766</v>
+        <v>14.13541045188904</v>
       </c>
       <c r="C8">
-        <v>0.6877750469028728</v>
+        <v>0.1302268348140631</v>
       </c>
       <c r="D8">
-        <v>0.08691325187683105</v>
+        <v>0.109153413772583</v>
       </c>
       <c r="E8">
-        <v>0.01843838317849974</v>
+        <v>0.008572722918467982</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.6416862487793</v>
+        <v>27.48805379867554</v>
       </c>
       <c r="C9">
-        <v>2.0290375658316</v>
+        <v>0.4151927449472966</v>
       </c>
       <c r="D9">
-        <v>0.0763007640838623</v>
+        <v>0.1190736770629883</v>
       </c>
       <c r="E9">
-        <v>0.01212244595287009</v>
+        <v>0.004307854821856773</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>41.59006896018982</v>
+        <v>54.7104444026947</v>
       </c>
       <c r="C10">
-        <v>5.178428131230555</v>
+        <v>0.200048446840845</v>
       </c>
       <c r="D10">
-        <v>0.0833676815032959</v>
+        <v>0.1312700271606445</v>
       </c>
       <c r="E10">
-        <v>0.004352089970294081</v>
+        <v>0.004780009412587607</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.3651111125946</v>
+        <v>22.09775819778442</v>
       </c>
       <c r="C11">
-        <v>1.775684702834586</v>
+        <v>0.2395651079491254</v>
       </c>
       <c r="D11">
-        <v>0.08576951026916504</v>
+        <v>0.1230459690093994</v>
       </c>
       <c r="E11">
-        <v>0.02082256169491511</v>
+        <v>0.01063872985775375</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.97437901496887</v>
+        <v>44.43215007781983</v>
       </c>
       <c r="C12">
-        <v>4.156089105268845</v>
+        <v>0.4317522954213004</v>
       </c>
       <c r="D12">
-        <v>0.09485912322998047</v>
+        <v>0.1047529220581055</v>
       </c>
       <c r="E12">
-        <v>0.01523038878397664</v>
+        <v>0.02349483956567926</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>67.17655029296876</v>
+        <v>89.19641437530518</v>
       </c>
       <c r="C13">
-        <v>7.389688148597759</v>
+        <v>0.8050678171528701</v>
       </c>
       <c r="D13">
-        <v>0.113815450668335</v>
+        <v>0.1510977268218994</v>
       </c>
       <c r="E13">
-        <v>0.02415117760328283</v>
+        <v>0.002950455181514571</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.56349601745606</v>
+        <v>23.08334374427795</v>
       </c>
       <c r="C14">
-        <v>1.622039846125608</v>
+        <v>0.266640052847351</v>
       </c>
       <c r="D14">
-        <v>0.0829437255859375</v>
+        <v>0.1057399749755859</v>
       </c>
       <c r="E14">
-        <v>0.02306236139346531</v>
+        <v>0.01410232079100464</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.82237391471863</v>
+        <v>44.78212580680847</v>
       </c>
       <c r="C15">
-        <v>3.488490967187383</v>
+        <v>0.3745312392517314</v>
       </c>
       <c r="D15">
-        <v>0.1016246318817139</v>
+        <v>0.1265879631042481</v>
       </c>
       <c r="E15">
-        <v>0.01635986986961998</v>
+        <v>0.005214569907759983</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>60.41594648361206</v>
+        <v>88.44539151191711</v>
       </c>
       <c r="C16">
-        <v>2.640209735049362</v>
+        <v>0.4899680868838666</v>
       </c>
       <c r="D16">
-        <v>0.09899759292602539</v>
+        <v>0.1612946033477783</v>
       </c>
       <c r="E16">
-        <v>0.006302397983548996</v>
+        <v>0.009249064759307484</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.40415177345276</v>
+        <v>22.43468494415283</v>
       </c>
       <c r="C17">
-        <v>1.465422714707518</v>
+        <v>0.2613196367462632</v>
       </c>
       <c r="D17">
-        <v>0.08046164512634277</v>
+        <v>0.1149884700775146</v>
       </c>
       <c r="E17">
-        <v>0.009832063788633395</v>
+        <v>0.003665229238923342</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.41666841506958</v>
+        <v>44.02703099250793</v>
       </c>
       <c r="C18">
-        <v>1.381500578528712</v>
+        <v>0.9898391411283519</v>
       </c>
       <c r="D18">
-        <v>0.08583402633666992</v>
+        <v>0.1236211776733398</v>
       </c>
       <c r="E18">
-        <v>0.004814031170873537</v>
+        <v>0.008061580870768345</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>50.13596448898316</v>
+        <v>82.78871817588806</v>
       </c>
       <c r="C19">
-        <v>2.624249911218771</v>
+        <v>1.539649081010485</v>
       </c>
       <c r="D19">
-        <v>0.06202645301818847</v>
+        <v>0.133585786819458</v>
       </c>
       <c r="E19">
-        <v>0.01767532255481675</v>
+        <v>0.01798691578709879</v>
       </c>
       <c r="F19">
         <v>2</v>

--- a/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_xgb_st.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_17_19/base_17_19_results_gs_xgb_st.xlsx
@@ -534,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.23090353012085</v>
+        <v>10.15259556770325</v>
       </c>
       <c r="C2">
-        <v>0.08987017251387559</v>
+        <v>1.05267143507151</v>
       </c>
       <c r="D2">
-        <v>0.1012592315673828</v>
+        <v>0.08534760475158691</v>
       </c>
       <c r="E2">
-        <v>0.02590453010150344</v>
+        <v>0.01956830993232566</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.90912117958069</v>
+        <v>19.8871479511261</v>
       </c>
       <c r="C3">
-        <v>0.1691629409042714</v>
+        <v>2.16775458929561</v>
       </c>
       <c r="D3">
-        <v>0.1151493072509766</v>
+        <v>0.08803949356079102</v>
       </c>
       <c r="E3">
-        <v>0.005189076373527938</v>
+        <v>0.03069251899343876</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -640,16 +640,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55.41184558868408</v>
+        <v>41.44909944534302</v>
       </c>
       <c r="C4">
-        <v>0.5643103387178653</v>
+        <v>5.115311126580822</v>
       </c>
       <c r="D4">
-        <v>0.1329743385314942</v>
+        <v>0.09200606346130372</v>
       </c>
       <c r="E4">
-        <v>0.002861550168892401</v>
+        <v>0.01817993634691197</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -693,16 +693,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.21831903457642</v>
+        <v>10.36741666793823</v>
       </c>
       <c r="C5">
-        <v>0.1288180034290688</v>
+        <v>1.493066677095403</v>
       </c>
       <c r="D5">
-        <v>0.1130139350891113</v>
+        <v>0.09559855461120606</v>
       </c>
       <c r="E5">
-        <v>0.00398423284335369</v>
+        <v>0.0245782120043128</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -746,16 +746,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27.57978043556214</v>
+        <v>19.82835965156555</v>
       </c>
       <c r="C6">
-        <v>0.3551971935418634</v>
+        <v>2.356783982888119</v>
       </c>
       <c r="D6">
-        <v>0.1224071979522705</v>
+        <v>0.09160318374633789</v>
       </c>
       <c r="E6">
-        <v>0.004417036714532242</v>
+        <v>0.01795562546531619</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -799,16 +799,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>54.99692068099976</v>
+        <v>39.79512739181519</v>
       </c>
       <c r="C7">
-        <v>0.5439854190609286</v>
+        <v>5.367968721106632</v>
       </c>
       <c r="D7">
-        <v>0.1331564903259277</v>
+        <v>0.09226822853088379</v>
       </c>
       <c r="E7">
-        <v>0.004187420709583316</v>
+        <v>0.01217054660834753</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.13541045188904</v>
+        <v>10.86775403022766</v>
       </c>
       <c r="C8">
-        <v>0.1302268348140631</v>
+        <v>0.6877750469028728</v>
       </c>
       <c r="D8">
-        <v>0.109153413772583</v>
+        <v>0.08691325187683105</v>
       </c>
       <c r="E8">
-        <v>0.008572722918467982</v>
+        <v>0.01843838317849974</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -905,16 +905,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.48805379867554</v>
+        <v>19.6416862487793</v>
       </c>
       <c r="C9">
-        <v>0.4151927449472966</v>
+        <v>2.0290375658316</v>
       </c>
       <c r="D9">
-        <v>0.1190736770629883</v>
+        <v>0.0763007640838623</v>
       </c>
       <c r="E9">
-        <v>0.004307854821856773</v>
+        <v>0.01212244595287009</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -958,16 +958,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>54.7104444026947</v>
+        <v>41.59006896018982</v>
       </c>
       <c r="C10">
-        <v>0.200048446840845</v>
+        <v>5.178428131230555</v>
       </c>
       <c r="D10">
-        <v>0.1312700271606445</v>
+        <v>0.0833676815032959</v>
       </c>
       <c r="E10">
-        <v>0.004780009412587607</v>
+        <v>0.004352089970294081</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1011,16 +1011,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.09775819778442</v>
+        <v>15.3651111125946</v>
       </c>
       <c r="C11">
-        <v>0.2395651079491254</v>
+        <v>1.775684702834586</v>
       </c>
       <c r="D11">
-        <v>0.1230459690093994</v>
+        <v>0.08576951026916504</v>
       </c>
       <c r="E11">
-        <v>0.01063872985775375</v>
+        <v>0.02082256169491511</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1064,16 +1064,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>44.43215007781983</v>
+        <v>31.97437901496887</v>
       </c>
       <c r="C12">
-        <v>0.4317522954213004</v>
+        <v>4.156089105268845</v>
       </c>
       <c r="D12">
-        <v>0.1047529220581055</v>
+        <v>0.09485912322998047</v>
       </c>
       <c r="E12">
-        <v>0.02349483956567926</v>
+        <v>0.01523038878397664</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1117,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>89.19641437530518</v>
+        <v>67.17655029296876</v>
       </c>
       <c r="C13">
-        <v>0.8050678171528701</v>
+        <v>7.389688148597759</v>
       </c>
       <c r="D13">
-        <v>0.1510977268218994</v>
+        <v>0.113815450668335</v>
       </c>
       <c r="E13">
-        <v>0.002950455181514571</v>
+        <v>0.02415117760328283</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1170,16 +1170,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.08334374427795</v>
+        <v>15.56349601745606</v>
       </c>
       <c r="C14">
-        <v>0.266640052847351</v>
+        <v>1.622039846125608</v>
       </c>
       <c r="D14">
-        <v>0.1057399749755859</v>
+        <v>0.0829437255859375</v>
       </c>
       <c r="E14">
-        <v>0.01410232079100464</v>
+        <v>0.02306236139346531</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -1223,16 +1223,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>44.78212580680847</v>
+        <v>32.82237391471863</v>
       </c>
       <c r="C15">
-        <v>0.3745312392517314</v>
+        <v>3.488490967187383</v>
       </c>
       <c r="D15">
-        <v>0.1265879631042481</v>
+        <v>0.1016246318817139</v>
       </c>
       <c r="E15">
-        <v>0.005214569907759983</v>
+        <v>0.01635986986961998</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1276,16 +1276,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>88.44539151191711</v>
+        <v>60.41594648361206</v>
       </c>
       <c r="C16">
-        <v>0.4899680868838666</v>
+        <v>2.640209735049362</v>
       </c>
       <c r="D16">
-        <v>0.1612946033477783</v>
+        <v>0.09899759292602539</v>
       </c>
       <c r="E16">
-        <v>0.009249064759307484</v>
+        <v>0.006302397983548996</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1329,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.43468494415283</v>
+        <v>16.40415177345276</v>
       </c>
       <c r="C17">
-        <v>0.2613196367462632</v>
+        <v>1.465422714707518</v>
       </c>
       <c r="D17">
-        <v>0.1149884700775146</v>
+        <v>0.08046164512634277</v>
       </c>
       <c r="E17">
-        <v>0.003665229238923342</v>
+        <v>0.009832063788633395</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1382,16 +1382,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>44.02703099250793</v>
+        <v>30.41666841506958</v>
       </c>
       <c r="C18">
-        <v>0.9898391411283519</v>
+        <v>1.381500578528712</v>
       </c>
       <c r="D18">
-        <v>0.1236211776733398</v>
+        <v>0.08583402633666992</v>
       </c>
       <c r="E18">
-        <v>0.008061580870768345</v>
+        <v>0.004814031170873537</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1435,16 +1435,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>82.78871817588806</v>
+        <v>50.13596448898316</v>
       </c>
       <c r="C19">
-        <v>1.539649081010485</v>
+        <v>2.624249911218771</v>
       </c>
       <c r="D19">
-        <v>0.133585786819458</v>
+        <v>0.06202645301818847</v>
       </c>
       <c r="E19">
-        <v>0.01798691578709879</v>
+        <v>0.01767532255481675</v>
       </c>
       <c r="F19">
         <v>2</v>
